--- a/ohrana truda.xlsx
+++ b/ohrana truda.xlsx
@@ -361,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,13 +374,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -720,7 +720,7 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2">
         <f>($D$10*$D$12*'Относительная освещённость'!$H$5)/(1000*$D$13*$D$14*$D$11)</f>
         <v>844.63865546218472</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2">
         <f>($D$10*$D$12*'Относительная освещённость'!$H$8)/(1000*$D$13*$D$14*$D$11)</f>
         <v>422.31932773109236</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -941,10 +941,10 @@
       <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="G2" s="9" t="s">
@@ -952,16 +952,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1.5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>9.5</v>
       </c>
       <c r="E3" s="3">
@@ -981,14 +981,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11">
         <v>5.6</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>4.5</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>9.5</v>
       </c>
       <c r="E4" s="3">
@@ -1008,24 +1008,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="11"/>
       <c r="H5" s="7">
         <f>SUM(H3:H4)</f>
         <v>279.2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1.5</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>19</v>
       </c>
       <c r="E6" s="3">
@@ -1045,14 +1045,14 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>4.5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>19</v>
       </c>
       <c r="E7" s="3">
@@ -1072,8 +1072,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="12"/>
       <c r="H8" s="2">
         <f>SUM(H6:H7)</f>
         <v>139.6</v>
